--- a/IntheRedDataDownload.xlsx
+++ b/IntheRedDataDownload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainnalynch/Documents/GitHub/Public/2021USRacialInequality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B41D1F-50F4-1F41-9DB4-3A0919AB9675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EF6A1E-C9E1-FA4E-BC89-D5B0731A223A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="27080" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="27080" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -1217,9 +1217,6 @@
     <t>Variable_disparity</t>
   </si>
   <si>
-    <t xml:space="preserve">Variables with suffix "_disparity" describe the disparty between the least served population group and the white population. </t>
-  </si>
-  <si>
     <t>Data definitions:</t>
   </si>
   <si>
@@ -1242,6 +1239,9 @@
   </si>
   <si>
     <t>For full data definitions, please download Sources, Thresholds, and Definitions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables with suffix "_disparity" describe the disparity between the least served population group and the white population. </t>
   </si>
 </sst>
 </file>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7C1108-94B6-A14F-AB85-81A59C755848}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1878,7 +1878,7 @@
         <v>381</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="15"/>
     </row>
@@ -1917,15 +1917,15 @@
         <v>390</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="19"/>
     </row>
@@ -1934,7 +1934,7 @@
         <v>384</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C11" s="17"/>
     </row>
@@ -1959,8 +1959,8 @@
   </sheetPr>
   <dimension ref="A1:JP52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
